--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil-dificultad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1223">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>47.523 (239)</t>
   </si>
   <si>
-    <t>9.707 (239)</t>
+    <t>9.695 (239)</t>
   </si>
   <si>
     <t>9.289 (239)</t>
@@ -175,7 +175,7 @@
     <t>46.931 (174)</t>
   </si>
   <si>
-    <t>9.713 (174)</t>
+    <t>9.718 (174)</t>
   </si>
   <si>
     <t>9.299 (174)</t>
@@ -334,7 +334,7 @@
     <t>47.805 (195)</t>
   </si>
   <si>
-    <t>9.703 (195)</t>
+    <t>9.697 (195)</t>
   </si>
   <si>
     <t>9.195 (195)</t>
@@ -388,7 +388,7 @@
     <t>46.884 (198)</t>
   </si>
   <si>
-    <t>9.727 (198)</t>
+    <t>9.722 (198)</t>
   </si>
   <si>
     <t>9.212 (198)</t>
@@ -547,7 +547,7 @@
     <t>48.854 (157)</t>
   </si>
   <si>
-    <t>9.643 (157)</t>
+    <t>9.637 (157)</t>
   </si>
   <si>
     <t>9.178 (157)</t>
@@ -601,7 +601,7 @@
     <t>45.786 (206)</t>
   </si>
   <si>
-    <t>9.898 (206)</t>
+    <t>9.893 (206)</t>
   </si>
   <si>
     <t>9.398 (206)</t>
@@ -763,7 +763,7 @@
     <t>49.642 (120)</t>
   </si>
   <si>
-    <t>9.508 (120)</t>
+    <t>9.5 (120)</t>
   </si>
   <si>
     <t>9.225 (120)</t>
@@ -817,7 +817,7 @@
     <t>45.151 (218)</t>
   </si>
   <si>
-    <t>9.867 (218)</t>
+    <t>9.858 (218)</t>
   </si>
   <si>
     <t>9.303 (218)</t>
@@ -868,7 +868,7 @@
     <t>50.153 (85)</t>
   </si>
   <si>
-    <t>9.506 (85)</t>
+    <t>9.518 (85)</t>
   </si>
   <si>
     <t>9.153 (85)</t>
@@ -967,7 +967,7 @@
     <t>48.659 (179)</t>
   </si>
   <si>
-    <t>9.413 (179)</t>
+    <t>9.408 (179)</t>
   </si>
   <si>
     <t>8.849 (179)</t>
@@ -1021,7 +1021,7 @@
     <t>47.156 (192)</t>
   </si>
   <si>
-    <t>9.547 (192)</t>
+    <t>9.552 (192)</t>
   </si>
   <si>
     <t>8.969 (192)</t>
@@ -1177,15 +1177,12 @@
     <t>50.115 (131)</t>
   </si>
   <si>
-    <t>9.534 (131)</t>
+    <t>9.527 (131)</t>
   </si>
   <si>
     <t>8.702 (131)</t>
   </si>
   <si>
-    <t>9.527 (131)</t>
-  </si>
-  <si>
     <t>10.26 (131)</t>
   </si>
   <si>
@@ -1231,7 +1228,7 @@
     <t>46.654 (211)</t>
   </si>
   <si>
-    <t>9.498 (211)</t>
+    <t>9.502 (211)</t>
   </si>
   <si>
     <t>8.948 (211)</t>
@@ -1444,7 +1441,7 @@
     <t>47.34 (215)</t>
   </si>
   <si>
-    <t>9.619 (215)</t>
+    <t>9.614 (215)</t>
   </si>
   <si>
     <t>8.972 (215)</t>
@@ -1498,7 +1495,7 @@
     <t>46.807 (88)</t>
   </si>
   <si>
-    <t>9.352 (88)</t>
+    <t>9.364 (88)</t>
   </si>
   <si>
     <t>8.92 (88)</t>
@@ -1657,7 +1654,7 @@
     <t>46.543 (210)</t>
   </si>
   <si>
-    <t>9.61 (210)</t>
+    <t>9.6 (210)</t>
   </si>
   <si>
     <t>8.948 (210)</t>
@@ -1711,7 +1708,7 @@
     <t>47.915 (117)</t>
   </si>
   <si>
-    <t>9.897 (117)</t>
+    <t>9.915 (117)</t>
   </si>
   <si>
     <t>9.094 (117)</t>
@@ -1870,7 +1867,7 @@
     <t>47.931 (189)</t>
   </si>
   <si>
-    <t>9.349 (189)</t>
+    <t>9.339 (189)</t>
   </si>
   <si>
     <t>8.921 (189)</t>
@@ -1924,7 +1921,7 @@
     <t>52.396 (53)</t>
   </si>
   <si>
-    <t>8.189 (53)</t>
+    <t>8.208 (53)</t>
   </si>
   <si>
     <t>7.075 (53)</t>
@@ -2077,7 +2074,7 @@
     <t>49.073 (192)</t>
   </si>
   <si>
-    <t>9.255 (192)</t>
+    <t>9.245 (192)</t>
   </si>
   <si>
     <t>8.641 (192)</t>
@@ -2128,7 +2125,7 @@
     <t>49.524 (82)</t>
   </si>
   <si>
-    <t>8.244 (82)</t>
+    <t>8.256 (82)</t>
   </si>
   <si>
     <t>7.829 (82)</t>
@@ -2341,7 +2338,7 @@
     <t>47.029 (104)</t>
   </si>
   <si>
-    <t>9.125 (104)</t>
+    <t>9.106 (104)</t>
   </si>
   <si>
     <t>8.471 (104)</t>
@@ -2395,7 +2392,7 @@
     <t>49.875 (32)</t>
   </si>
   <si>
-    <t>8.469 (32)</t>
+    <t>8.5 (32)</t>
   </si>
   <si>
     <t>7.812 (32)</t>
@@ -2542,7 +2539,7 @@
     <t>48.405 (158)</t>
   </si>
   <si>
-    <t>9.025 (158)</t>
+    <t>9.019 (158)</t>
   </si>
   <si>
     <t>8.316 (158)</t>
@@ -2758,7 +2755,7 @@
     <t>49.417 (103)</t>
   </si>
   <si>
-    <t>8.786 (103)</t>
+    <t>8.777 (103)</t>
   </si>
   <si>
     <t>7.631 (103)</t>
@@ -2866,7 +2863,7 @@
     <t>51.042 (71)</t>
   </si>
   <si>
-    <t>8.451 (71)</t>
+    <t>8.437 (71)</t>
   </si>
   <si>
     <t>7.648 (71)</t>
@@ -2920,7 +2917,7 @@
     <t>62.6 (5)</t>
   </si>
   <si>
-    <t>8.6 (5)</t>
+    <t>8.8 (5)</t>
   </si>
   <si>
     <t>9.8 (5)</t>
@@ -3025,7 +3022,7 @@
     <t>50.107 (169)</t>
   </si>
   <si>
-    <t>8.692 (169)</t>
+    <t>8.68 (169)</t>
   </si>
   <si>
     <t>7.68 (169)</t>
@@ -3133,7 +3130,7 @@
     <t>49.391 (23)</t>
   </si>
   <si>
-    <t>8.739 (23)</t>
+    <t>8.783 (23)</t>
   </si>
   <si>
     <t>8.652 (23)</t>
@@ -3295,7 +3292,7 @@
     <t>48.051 (117)</t>
   </si>
   <si>
-    <t>9.06 (117)</t>
+    <t>9.034 (117)</t>
   </si>
   <si>
     <t>8.239 (117)</t>
@@ -3349,7 +3346,7 @@
     <t>47.021 (47)</t>
   </si>
   <si>
-    <t>8.298 (47)</t>
+    <t>8.319 (47)</t>
   </si>
   <si>
     <t>7.872 (47)</t>
@@ -3403,7 +3400,7 @@
     <t>64.5 (8)</t>
   </si>
   <si>
-    <t>8.75 (8)</t>
+    <t>8.875 (8)</t>
   </si>
   <si>
     <t>8.125 (8)</t>
@@ -3508,15 +3505,12 @@
     <t>50.265 (102)</t>
   </si>
   <si>
-    <t>8.353 (102)</t>
+    <t>8.343 (102)</t>
   </si>
   <si>
     <t>7.559 (102)</t>
   </si>
   <si>
-    <t>8.343 (102)</t>
-  </si>
-  <si>
     <t>8.804 (102)</t>
   </si>
   <si>
@@ -3562,7 +3556,7 @@
     <t>48.576 (144)</t>
   </si>
   <si>
-    <t>9.208 (144)</t>
+    <t>9.201 (144)</t>
   </si>
   <si>
     <t>7.958 (144)</t>
@@ -3670,7 +3664,7 @@
     <t>59.474 (19)</t>
   </si>
   <si>
-    <t>7.158 (19)</t>
+    <t>7.211 (19)</t>
   </si>
   <si>
     <t>7.105 (19)</t>
@@ -4137,10 +4131,10 @@
         <v>2.925</v>
       </c>
       <c r="I2">
-        <v>0.991</v>
+        <v>0.895</v>
       </c>
       <c r="J2">
-        <v>0.322</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4169,10 +4163,10 @@
         <v>1.384</v>
       </c>
       <c r="I3">
-        <v>0.49</v>
+        <v>0.427</v>
       </c>
       <c r="J3">
-        <v>0.625</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4201,10 +4195,10 @@
         <v>-0.12</v>
       </c>
       <c r="I4">
-        <v>-0.033</v>
+        <v>-0.032</v>
       </c>
       <c r="J4">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4233,10 +4227,10 @@
         <v>-1.801</v>
       </c>
       <c r="I5">
-        <v>-0.473</v>
+        <v>-0.674</v>
       </c>
       <c r="J5">
-        <v>0.636</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4265,10 +4259,10 @@
         <v>-1.821</v>
       </c>
       <c r="I6">
-        <v>-0.465</v>
+        <v>-0.572</v>
       </c>
       <c r="J6">
-        <v>0.642</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4297,10 +4291,10 @@
         <v>3.032</v>
       </c>
       <c r="I7">
-        <v>0.745</v>
+        <v>0.843</v>
       </c>
       <c r="J7">
-        <v>0.457</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4326,13 +4320,13 @@
         <v>0.037</v>
       </c>
       <c r="H8">
-        <v>-1.408</v>
+        <v>-1.358</v>
       </c>
       <c r="I8">
-        <v>-1.233</v>
+        <v>-1.253</v>
       </c>
       <c r="J8">
-        <v>0.218</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4361,10 +4355,10 @@
         <v>-0.129</v>
       </c>
       <c r="I9">
-        <v>-0.115</v>
+        <v>-0.124</v>
       </c>
       <c r="J9">
-        <v>0.908</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4396,7 +4390,7 @@
         <v>-0.377</v>
       </c>
       <c r="J10">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4425,10 +4419,10 @@
         <v>-0.382</v>
       </c>
       <c r="I11">
-        <v>-0.283</v>
+        <v>-0.346</v>
       </c>
       <c r="J11">
-        <v>0.778</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4457,10 +4451,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="I12">
-        <v>0.492</v>
+        <v>0.578</v>
       </c>
       <c r="J12">
-        <v>0.623</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4489,10 +4483,10 @@
         <v>-1.376</v>
       </c>
       <c r="I13">
-        <v>-0.96</v>
+        <v>-1.058</v>
       </c>
       <c r="J13">
-        <v>0.338</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4521,10 +4515,10 @@
         <v>0.029</v>
       </c>
       <c r="I14">
-        <v>1.381</v>
+        <v>1.48</v>
       </c>
       <c r="J14">
-        <v>0.168</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4553,10 +4547,10 @@
         <v>0.022</v>
       </c>
       <c r="I15">
-        <v>1.02</v>
+        <v>1.012</v>
       </c>
       <c r="J15">
-        <v>0.309</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4585,10 +4579,10 @@
         <v>0.012</v>
       </c>
       <c r="I16">
-        <v>0.53</v>
+        <v>0.675</v>
       </c>
       <c r="J16">
-        <v>0.596</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4617,10 +4611,10 @@
         <v>0.034</v>
       </c>
       <c r="I17">
-        <v>1.474</v>
+        <v>2.122</v>
       </c>
       <c r="J17">
-        <v>0.141</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4649,10 +4643,10 @@
         <v>0.008</v>
       </c>
       <c r="I18">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="J18">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4681,10 +4675,10 @@
         <v>0.004</v>
       </c>
       <c r="I19">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="J19">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
     </row>
   </sheetData>
@@ -4749,16 +4743,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F2">
         <v>379</v>
@@ -4770,10 +4764,10 @@
         <v>5.478</v>
       </c>
       <c r="I2">
-        <v>1.724</v>
+        <v>1.666</v>
       </c>
       <c r="J2">
-        <v>0.08599999999999999</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4781,16 +4775,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F3">
         <v>379</v>
@@ -4802,10 +4796,10 @@
         <v>1.029</v>
       </c>
       <c r="I3">
-        <v>0.337</v>
+        <v>0.444</v>
       </c>
       <c r="J3">
-        <v>0.736</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4813,16 +4807,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F4">
         <v>379</v>
@@ -4834,10 +4828,10 @@
         <v>-1.712</v>
       </c>
       <c r="I4">
-        <v>-0.449</v>
+        <v>-0.537</v>
       </c>
       <c r="J4">
-        <v>0.653</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4845,16 +4839,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F5">
         <v>379</v>
@@ -4866,10 +4860,10 @@
         <v>-7.479</v>
       </c>
       <c r="I5">
-        <v>-1.861</v>
+        <v>-1.726</v>
       </c>
       <c r="J5">
-        <v>0.064</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4877,16 +4871,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F6">
         <v>379</v>
@@ -4898,10 +4892,10 @@
         <v>-7.529</v>
       </c>
       <c r="I6">
-        <v>-1.794</v>
+        <v>-1.944</v>
       </c>
       <c r="J6">
-        <v>0.074</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4909,16 +4903,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F7">
         <v>379</v>
@@ -4930,10 +4924,10 @@
         <v>1.462</v>
       </c>
       <c r="I7">
-        <v>0.335</v>
+        <v>0.308</v>
       </c>
       <c r="J7">
-        <v>0.738</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4941,16 +4935,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F8">
         <v>379</v>
@@ -4959,13 +4953,13 @@
         <v>0.037</v>
       </c>
       <c r="H8">
-        <v>-2.263</v>
+        <v>-2.249</v>
       </c>
       <c r="I8">
-        <v>-1.881</v>
+        <v>-1.928</v>
       </c>
       <c r="J8">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4973,16 +4967,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F9">
         <v>379</v>
@@ -4994,10 +4988,10 @@
         <v>-0.253</v>
       </c>
       <c r="I9">
-        <v>-0.22</v>
+        <v>-0.311</v>
       </c>
       <c r="J9">
-        <v>0.826</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5005,16 +4999,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F10">
         <v>379</v>
@@ -5026,10 +5020,10 @@
         <v>-0.015</v>
       </c>
       <c r="I10">
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="J10">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5037,16 +5031,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F11">
         <v>379</v>
@@ -5058,10 +5052,10 @@
         <v>1.565</v>
       </c>
       <c r="I11">
-        <v>1.099</v>
+        <v>1.012</v>
       </c>
       <c r="J11">
-        <v>0.273</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5069,16 +5063,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F12">
         <v>379</v>
@@ -5090,10 +5084,10 @@
         <v>2.119</v>
       </c>
       <c r="I12">
-        <v>1.409</v>
+        <v>1.513</v>
       </c>
       <c r="J12">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5101,16 +5095,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F13">
         <v>379</v>
@@ -5122,10 +5116,10 @@
         <v>-0.721</v>
       </c>
       <c r="I13">
-        <v>-0.474</v>
+        <v>-0.444</v>
       </c>
       <c r="J13">
-        <v>0.636</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5133,16 +5127,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F14">
         <v>379</v>
@@ -5154,10 +5148,10 @@
         <v>0.01</v>
       </c>
       <c r="I14">
-        <v>0.429</v>
+        <v>0.474</v>
       </c>
       <c r="J14">
-        <v>0.668</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5165,16 +5159,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F15">
         <v>379</v>
@@ -5186,10 +5180,10 @@
         <v>0.002</v>
       </c>
       <c r="I15">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="J15">
-        <v>0.914</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5197,16 +5191,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F16">
         <v>379</v>
@@ -5218,10 +5212,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.101</v>
+        <v>-0.11</v>
       </c>
       <c r="J16">
-        <v>0.92</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5229,16 +5223,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" t="s">
         <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F17">
         <v>379</v>
@@ -5250,10 +5244,10 @@
         <v>0.067</v>
       </c>
       <c r="I17">
-        <v>2.737</v>
+        <v>3.434</v>
       </c>
       <c r="J17">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5261,16 +5255,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F18">
         <v>379</v>
@@ -5282,10 +5276,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>1.103</v>
+        <v>1.269</v>
       </c>
       <c r="J18">
-        <v>0.271</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5293,16 +5287,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F19">
         <v>379</v>
@@ -5314,10 +5308,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>1.332</v>
+        <v>1.639</v>
       </c>
       <c r="J19">
-        <v>0.184</v>
+        <v>0.101</v>
       </c>
     </row>
   </sheetData>
@@ -5386,16 +5380,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F2" t="s">
         <v>223</v>
@@ -5410,10 +5404,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2">
-        <v>2.346</v>
+        <v>2.233</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5421,19 +5415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G3">
         <v>379</v>
@@ -5445,10 +5439,10 @@
         <v>3.171</v>
       </c>
       <c r="J3">
-        <v>0.9419999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
-        <v>0.347</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5456,19 +5450,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G4">
         <v>379</v>
@@ -5480,10 +5474,10 @@
         <v>-0.338</v>
       </c>
       <c r="J4">
-        <v>-0.08</v>
+        <v>-0.095</v>
       </c>
       <c r="K4">
-        <v>0.9360000000000001</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5491,19 +5485,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G5">
         <v>379</v>
@@ -5515,10 +5509,10 @@
         <v>-5.333</v>
       </c>
       <c r="J5">
-        <v>-1.198</v>
+        <v>-1.496</v>
       </c>
       <c r="K5">
-        <v>0.232</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5526,19 +5520,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G6">
         <v>379</v>
@@ -5550,10 +5544,10 @@
         <v>-7.296</v>
       </c>
       <c r="J6">
-        <v>-1.573</v>
+        <v>-1.889</v>
       </c>
       <c r="K6">
-        <v>0.117</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5561,19 +5555,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G7">
         <v>379</v>
@@ -5585,10 +5579,10 @@
         <v>1.568</v>
       </c>
       <c r="J7">
-        <v>0.325</v>
+        <v>0.297</v>
       </c>
       <c r="K7">
-        <v>0.745</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5596,19 +5590,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G8">
         <v>379</v>
@@ -5617,13 +5611,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>-2.898</v>
+        <v>-2.899</v>
       </c>
       <c r="J8">
-        <v>-2.187</v>
+        <v>-2.058</v>
       </c>
       <c r="K8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5631,16 +5625,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F9" t="s">
         <v>229</v>
@@ -5655,10 +5649,10 @@
         <v>-1.393</v>
       </c>
       <c r="J9">
-        <v>-1.099</v>
+        <v>-1.328</v>
       </c>
       <c r="K9">
-        <v>0.273</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5666,19 +5660,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G10">
         <v>379</v>
@@ -5690,10 +5684,10 @@
         <v>-0.872</v>
       </c>
       <c r="J10">
-        <v>-0.575</v>
+        <v>-0.615</v>
       </c>
       <c r="K10">
-        <v>0.5659999999999999</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5701,19 +5695,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G11">
         <v>379</v>
@@ -5725,10 +5719,10 @@
         <v>0.975</v>
       </c>
       <c r="J11">
-        <v>0.619</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="K11">
-        <v>0.536</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5736,19 +5730,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G12">
         <v>379</v>
@@ -5760,10 +5754,10 @@
         <v>1.755</v>
       </c>
       <c r="J12">
-        <v>1.056</v>
+        <v>1.14</v>
       </c>
       <c r="K12">
-        <v>0.292</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5771,19 +5765,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G13">
         <v>379</v>
@@ -5795,10 +5789,10 @@
         <v>-0.396</v>
       </c>
       <c r="J13">
-        <v>-0.236</v>
+        <v>-0.217</v>
       </c>
       <c r="K13">
-        <v>0.8139999999999999</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5806,19 +5800,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G14">
         <v>379</v>
@@ -5830,10 +5824,10 @@
         <v>0.023</v>
       </c>
       <c r="J14">
-        <v>0.906</v>
+        <v>1.077</v>
       </c>
       <c r="K14">
-        <v>0.366</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5841,19 +5835,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G15">
         <v>379</v>
@@ -5865,10 +5859,10 @@
         <v>0.008</v>
       </c>
       <c r="J15">
-        <v>0.325</v>
+        <v>0.384</v>
       </c>
       <c r="K15">
-        <v>0.745</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5876,19 +5870,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G16">
         <v>379</v>
@@ -5900,10 +5894,10 @@
         <v>-0.008</v>
       </c>
       <c r="J16">
-        <v>-0.308</v>
+        <v>-0.32</v>
       </c>
       <c r="K16">
-        <v>0.758</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5911,19 +5905,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G17">
         <v>379</v>
@@ -5935,10 +5929,10 @@
         <v>0.053</v>
       </c>
       <c r="J17">
-        <v>1.963</v>
+        <v>2.246</v>
       </c>
       <c r="K17">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5946,19 +5940,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G18">
         <v>379</v>
@@ -5970,10 +5964,10 @@
         <v>0.027</v>
       </c>
       <c r="J18">
-        <v>0.976</v>
+        <v>1.152</v>
       </c>
       <c r="K18">
-        <v>0.33</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5981,19 +5975,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G19">
         <v>379</v>
@@ -6005,10 +5999,10 @@
         <v>0.031</v>
       </c>
       <c r="J19">
-        <v>1.108</v>
+        <v>1.562</v>
       </c>
       <c r="K19">
-        <v>0.269</v>
+        <v>0.118</v>
       </c>
     </row>
   </sheetData>
@@ -6077,19 +6071,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G2">
         <v>379</v>
@@ -6101,10 +6095,10 @@
         <v>7.183</v>
       </c>
       <c r="J2">
-        <v>1.719</v>
+        <v>1.581</v>
       </c>
       <c r="K2">
-        <v>0.08699999999999999</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6112,19 +6106,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G3">
         <v>379</v>
@@ -6136,10 +6130,10 @@
         <v>2.974</v>
       </c>
       <c r="J3">
-        <v>0.741</v>
+        <v>0.833</v>
       </c>
       <c r="K3">
-        <v>0.459</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6147,19 +6141,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G4">
         <v>379</v>
@@ -6171,10 +6165,10 @@
         <v>1.346</v>
       </c>
       <c r="J4">
-        <v>0.269</v>
+        <v>0.31</v>
       </c>
       <c r="K4">
-        <v>0.788</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6182,19 +6176,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G5">
         <v>379</v>
@@ -6206,10 +6200,10 @@
         <v>-5.735</v>
       </c>
       <c r="J5">
-        <v>-1.082</v>
+        <v>-1.084</v>
       </c>
       <c r="K5">
-        <v>0.28</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6217,19 +6211,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G6">
         <v>379</v>
@@ -6241,10 +6235,10 @@
         <v>-10.524</v>
       </c>
       <c r="J6">
-        <v>-1.909</v>
+        <v>-1.987</v>
       </c>
       <c r="K6">
-        <v>0.057</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6252,19 +6246,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G7">
         <v>379</v>
@@ -6276,10 +6270,10 @@
         <v>5.548</v>
       </c>
       <c r="J7">
-        <v>0.968</v>
+        <v>0.888</v>
       </c>
       <c r="K7">
-        <v>0.334</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6287,19 +6281,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G8">
         <v>379</v>
@@ -6308,13 +6302,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-2.161</v>
+        <v>-2.158</v>
       </c>
       <c r="J8">
-        <v>-1.363</v>
+        <v>-1.221</v>
       </c>
       <c r="K8">
-        <v>0.174</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6322,19 +6316,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -6346,10 +6340,10 @@
         <v>-1.926</v>
       </c>
       <c r="J9">
-        <v>-1.278</v>
+        <v>-1.62</v>
       </c>
       <c r="K9">
-        <v>0.202</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6357,19 +6351,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G10">
         <v>379</v>
@@ -6381,10 +6375,10 @@
         <v>-1.777</v>
       </c>
       <c r="J10">
-        <v>-0.985</v>
+        <v>-1.05</v>
       </c>
       <c r="K10">
-        <v>0.325</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6392,19 +6386,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G11">
         <v>379</v>
@@ -6416,10 +6410,10 @@
         <v>1.122</v>
       </c>
       <c r="J11">
-        <v>0.599</v>
+        <v>0.607</v>
       </c>
       <c r="K11">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6427,19 +6421,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G12">
         <v>379</v>
@@ -6451,10 +6445,10 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>1.519</v>
+        <v>1.529</v>
       </c>
       <c r="K12">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6462,19 +6456,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G13">
         <v>379</v>
@@ -6486,10 +6480,10 @@
         <v>-1.889</v>
       </c>
       <c r="J13">
-        <v>-0.946</v>
+        <v>-0.901</v>
       </c>
       <c r="K13">
-        <v>0.345</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6497,19 +6491,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G14">
         <v>379</v>
@@ -6521,10 +6515,10 @@
         <v>0.013</v>
       </c>
       <c r="J14">
-        <v>0.451</v>
+        <v>0.478</v>
       </c>
       <c r="K14">
-        <v>0.652</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6532,19 +6526,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G15">
         <v>379</v>
@@ -6556,10 +6550,10 @@
         <v>0.003</v>
       </c>
       <c r="J15">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="K15">
-        <v>0.918</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6567,19 +6561,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E16" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G16">
         <v>379</v>
@@ -6591,10 +6585,10 @@
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>0.321</v>
+        <v>0.309</v>
       </c>
       <c r="K16">
-        <v>0.748</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6602,19 +6596,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G17">
         <v>379</v>
@@ -6626,10 +6620,10 @@
         <v>0.05</v>
       </c>
       <c r="J17">
-        <v>1.538</v>
+        <v>1.798</v>
       </c>
       <c r="K17">
-        <v>0.125</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6637,19 +6631,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G18">
         <v>379</v>
@@ -6661,10 +6655,10 @@
         <v>0.031</v>
       </c>
       <c r="J18">
-        <v>0.948</v>
+        <v>1.153</v>
       </c>
       <c r="K18">
-        <v>0.344</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6672,19 +6666,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G19">
         <v>379</v>
@@ -6696,10 +6690,10 @@
         <v>0.025</v>
       </c>
       <c r="J19">
-        <v>0.744</v>
+        <v>1.046</v>
       </c>
       <c r="K19">
-        <v>0.457</v>
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
@@ -6764,16 +6758,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F2">
         <v>354</v>
@@ -6785,10 +6779,10 @@
         <v>1.539</v>
       </c>
       <c r="I2">
-        <v>0.59</v>
+        <v>0.607</v>
       </c>
       <c r="J2">
-        <v>0.555</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6796,16 +6790,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F3">
         <v>354</v>
@@ -6817,10 +6811,10 @@
         <v>-2.387</v>
       </c>
       <c r="I3">
-        <v>-0.978</v>
+        <v>-1.318</v>
       </c>
       <c r="J3">
-        <v>0.329</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6828,16 +6822,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F4">
         <v>354</v>
@@ -6849,10 +6843,10 @@
         <v>-2.441</v>
       </c>
       <c r="I4">
-        <v>-0.8159999999999999</v>
+        <v>-0.833</v>
       </c>
       <c r="J4">
-        <v>0.415</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6860,16 +6854,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F5">
         <v>354</v>
@@ -6881,10 +6875,10 @@
         <v>-2.7</v>
       </c>
       <c r="I5">
-        <v>-0.859</v>
+        <v>-0.906</v>
       </c>
       <c r="J5">
-        <v>0.391</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6892,16 +6886,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F6">
         <v>354</v>
@@ -6913,10 +6907,10 @@
         <v>-3.754</v>
       </c>
       <c r="I6">
-        <v>-1.151</v>
+        <v>-1.103</v>
       </c>
       <c r="J6">
-        <v>0.251</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6924,16 +6918,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F7">
         <v>354</v>
@@ -6945,10 +6939,10 @@
         <v>2.02</v>
       </c>
       <c r="I7">
-        <v>0.6</v>
+        <v>0.503</v>
       </c>
       <c r="J7">
-        <v>0.549</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6956,16 +6950,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F8">
         <v>354</v>
@@ -6974,13 +6968,13 @@
         <v>0.061</v>
       </c>
       <c r="H8">
-        <v>0.065</v>
+        <v>0.098</v>
       </c>
       <c r="I8">
-        <v>0.068</v>
+        <v>0.102</v>
       </c>
       <c r="J8">
-        <v>0.946</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6988,16 +6982,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F9">
         <v>354</v>
@@ -7009,10 +7003,10 @@
         <v>0.633</v>
       </c>
       <c r="I9">
-        <v>0.714</v>
+        <v>0.791</v>
       </c>
       <c r="J9">
-        <v>0.476</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7020,16 +7014,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F10">
         <v>354</v>
@@ -7041,10 +7035,10 @@
         <v>0.51</v>
       </c>
       <c r="I10">
-        <v>0.478</v>
+        <v>0.491</v>
       </c>
       <c r="J10">
-        <v>0.633</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7052,16 +7046,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F11">
         <v>354</v>
@@ -7073,10 +7067,10 @@
         <v>0.274</v>
       </c>
       <c r="I11">
-        <v>0.248</v>
+        <v>0.262</v>
       </c>
       <c r="J11">
-        <v>0.804</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7084,16 +7078,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F12">
         <v>354</v>
@@ -7105,10 +7099,10 @@
         <v>1.738</v>
       </c>
       <c r="I12">
-        <v>1.493</v>
+        <v>1.523</v>
       </c>
       <c r="J12">
-        <v>0.136</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7116,16 +7110,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F13">
         <v>354</v>
@@ -7137,10 +7131,10 @@
         <v>-0.587</v>
       </c>
       <c r="I13">
-        <v>-0.503</v>
+        <v>-0.437</v>
       </c>
       <c r="J13">
-        <v>0.615</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7148,16 +7142,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14">
         <v>354</v>
@@ -7169,10 +7163,10 @@
         <v>0.007</v>
       </c>
       <c r="I14">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="J14">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7180,16 +7174,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F15">
         <v>354</v>
@@ -7201,10 +7195,10 @@
         <v>0.013</v>
       </c>
       <c r="I15">
-        <v>0.725</v>
+        <v>0.652</v>
       </c>
       <c r="J15">
-        <v>0.469</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7212,16 +7206,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C16" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F16">
         <v>354</v>
@@ -7233,10 +7227,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.286</v>
+        <v>0.253</v>
       </c>
       <c r="J16">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7244,16 +7238,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F17">
         <v>354</v>
@@ -7265,10 +7259,10 @@
         <v>0.046</v>
       </c>
       <c r="I17">
-        <v>2.358</v>
+        <v>2.639</v>
       </c>
       <c r="J17">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7276,16 +7270,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F18">
         <v>354</v>
@@ -7297,10 +7291,10 @@
         <v>0.019</v>
       </c>
       <c r="I18">
-        <v>0.953</v>
+        <v>1.042</v>
       </c>
       <c r="J18">
-        <v>0.341</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7308,16 +7302,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F19">
         <v>354</v>
@@ -7329,10 +7323,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>1.264</v>
+        <v>1.41</v>
       </c>
       <c r="J19">
-        <v>0.207</v>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
@@ -7397,16 +7391,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F2">
         <v>354</v>
@@ -7418,10 +7412,10 @@
         <v>4.362</v>
       </c>
       <c r="I2">
-        <v>1.39</v>
+        <v>1.382</v>
       </c>
       <c r="J2">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7429,16 +7423,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F3">
         <v>354</v>
@@ -7450,10 +7444,10 @@
         <v>-1.009</v>
       </c>
       <c r="I3">
-        <v>-0.342</v>
+        <v>-0.474</v>
       </c>
       <c r="J3">
-        <v>0.733</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7461,16 +7455,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F4">
         <v>354</v>
@@ -7482,10 +7476,10 @@
         <v>-0.206</v>
       </c>
       <c r="I4">
-        <v>-0.057</v>
+        <v>-0.065</v>
       </c>
       <c r="J4">
-        <v>0.955</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7493,16 +7487,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F5">
         <v>354</v>
@@ -7514,10 +7508,10 @@
         <v>-5.02</v>
       </c>
       <c r="I5">
-        <v>-1.326</v>
+        <v>-1.318</v>
       </c>
       <c r="J5">
-        <v>0.186</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7525,16 +7519,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F6">
         <v>354</v>
@@ -7546,10 +7540,10 @@
         <v>-5.993</v>
       </c>
       <c r="I6">
-        <v>-1.525</v>
+        <v>-1.508</v>
       </c>
       <c r="J6">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7557,16 +7551,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F7">
         <v>354</v>
@@ -7578,10 +7572,10 @@
         <v>1.129</v>
       </c>
       <c r="I7">
-        <v>0.278</v>
+        <v>0.272</v>
       </c>
       <c r="J7">
-        <v>0.781</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7589,16 +7583,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F8">
         <v>354</v>
@@ -7607,13 +7601,13 @@
         <v>0.042</v>
       </c>
       <c r="H8">
-        <v>-1.144</v>
+        <v>-1.111</v>
       </c>
       <c r="I8">
-        <v>-0.986</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="J8">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7621,16 +7615,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F9">
         <v>354</v>
@@ -7642,10 +7636,10 @@
         <v>0.489</v>
       </c>
       <c r="I9">
-        <v>0.457</v>
+        <v>0.529</v>
       </c>
       <c r="J9">
-        <v>0.648</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7653,16 +7647,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F10">
         <v>354</v>
@@ -7674,10 +7668,10 @@
         <v>0.075</v>
       </c>
       <c r="I10">
-        <v>0.059</v>
+        <v>0.065</v>
       </c>
       <c r="J10">
-        <v>0.953</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7685,16 +7679,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F11">
         <v>354</v>
@@ -7706,10 +7700,10 @@
         <v>0.865</v>
       </c>
       <c r="I11">
-        <v>0.65</v>
+        <v>0.651</v>
       </c>
       <c r="J11">
-        <v>0.516</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7717,16 +7711,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F12">
         <v>354</v>
@@ -7738,10 +7732,10 @@
         <v>2.186</v>
       </c>
       <c r="I12">
-        <v>1.557</v>
+        <v>1.743</v>
       </c>
       <c r="J12">
-        <v>0.121</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7749,16 +7743,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F13">
         <v>354</v>
@@ -7770,10 +7764,10 @@
         <v>-0.513</v>
       </c>
       <c r="I13">
-        <v>-0.364</v>
+        <v>-0.411</v>
       </c>
       <c r="J13">
-        <v>0.716</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7781,16 +7775,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F14">
         <v>354</v>
@@ -7802,10 +7796,10 @@
         <v>0.002</v>
       </c>
       <c r="I14">
-        <v>0.098</v>
+        <v>0.123</v>
       </c>
       <c r="J14">
-        <v>0.922</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7813,16 +7807,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D15" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F15">
         <v>354</v>
@@ -7837,7 +7831,7 @@
         <v>0.013</v>
       </c>
       <c r="J15">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7845,16 +7839,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F16">
         <v>354</v>
@@ -7866,10 +7860,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-0.5639999999999999</v>
+        <v>-0.579</v>
       </c>
       <c r="J16">
-        <v>0.573</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7877,16 +7871,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E17" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F17">
         <v>354</v>
@@ -7898,10 +7892,10 @@
         <v>0.047</v>
       </c>
       <c r="I17">
-        <v>1.986</v>
+        <v>2.306</v>
       </c>
       <c r="J17">
-        <v>0.048</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7909,16 +7903,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F18">
         <v>354</v>
@@ -7930,10 +7924,10 @@
         <v>0.013</v>
       </c>
       <c r="I18">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J18">
-        <v>0.569</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7941,16 +7935,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F19">
         <v>354</v>
@@ -7962,10 +7956,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>1.186</v>
+        <v>1.41</v>
       </c>
       <c r="J19">
-        <v>0.237</v>
+        <v>0.159</v>
       </c>
     </row>
   </sheetData>
@@ -8034,19 +8028,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G2">
         <v>354</v>
@@ -8058,10 +8052,10 @@
         <v>6.81</v>
       </c>
       <c r="J2">
-        <v>1.973</v>
+        <v>1.953</v>
       </c>
       <c r="K2">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8069,19 +8063,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G3">
         <v>354</v>
@@ -8093,10 +8087,10 @@
         <v>0.592</v>
       </c>
       <c r="J3">
-        <v>0.182</v>
+        <v>0.228</v>
       </c>
       <c r="K3">
-        <v>0.856</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8104,19 +8098,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G4">
         <v>354</v>
@@ -8128,10 +8122,10 @@
         <v>1.625</v>
       </c>
       <c r="J4">
-        <v>0.408</v>
+        <v>0.507</v>
       </c>
       <c r="K4">
-        <v>0.6840000000000001</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8139,19 +8133,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G5">
         <v>354</v>
@@ -8163,10 +8157,10 @@
         <v>-3.197</v>
       </c>
       <c r="J5">
-        <v>-0.764</v>
+        <v>-0.989</v>
       </c>
       <c r="K5">
-        <v>0.446</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8174,19 +8168,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G6">
         <v>354</v>
@@ -8198,10 +8192,10 @@
         <v>-6.221</v>
       </c>
       <c r="J6">
-        <v>-1.434</v>
+        <v>-1.935</v>
       </c>
       <c r="K6">
-        <v>0.153</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8209,19 +8203,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G7">
         <v>354</v>
@@ -8233,10 +8227,10 @@
         <v>-0.215</v>
       </c>
       <c r="J7">
-        <v>-0.048</v>
+        <v>-0.052</v>
       </c>
       <c r="K7">
-        <v>0.962</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8244,19 +8238,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G8">
         <v>354</v>
@@ -8265,13 +8259,13 @@
         <v>0.034</v>
       </c>
       <c r="I8">
-        <v>-1.648</v>
+        <v>-1.612</v>
       </c>
       <c r="J8">
-        <v>-1.29</v>
+        <v>-1.201</v>
       </c>
       <c r="K8">
-        <v>0.198</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8279,19 +8273,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G9">
         <v>354</v>
@@ -8303,10 +8297,10 @@
         <v>-0.44</v>
       </c>
       <c r="J9">
-        <v>-0.372</v>
+        <v>-0.397</v>
       </c>
       <c r="K9">
-        <v>0.71</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8314,19 +8308,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G10">
         <v>354</v>
@@ -8338,10 +8332,10 @@
         <v>-0.838</v>
       </c>
       <c r="J10">
-        <v>-0.59</v>
+        <v>-0.695</v>
       </c>
       <c r="K10">
-        <v>0.556</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8349,19 +8343,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G11">
         <v>354</v>
@@ -8373,10 +8367,10 @@
         <v>0.291</v>
       </c>
       <c r="J11">
-        <v>0.198</v>
+        <v>0.272</v>
       </c>
       <c r="K11">
-        <v>0.843</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8384,19 +8378,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G12">
         <v>354</v>
@@ -8408,10 +8402,10 @@
         <v>1.75</v>
       </c>
       <c r="J12">
-        <v>1.128</v>
+        <v>1.413</v>
       </c>
       <c r="K12">
-        <v>0.26</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8419,19 +8413,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G13">
         <v>354</v>
@@ -8443,10 +8437,10 @@
         <v>0.352</v>
       </c>
       <c r="J13">
-        <v>0.226</v>
+        <v>0.285</v>
       </c>
       <c r="K13">
-        <v>0.821</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8454,19 +8448,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G14">
         <v>354</v>
@@ -8478,10 +8472,10 @@
         <v>0.016</v>
       </c>
       <c r="J14">
-        <v>0.6820000000000001</v>
+        <v>0.888</v>
       </c>
       <c r="K14">
-        <v>0.496</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8489,19 +8483,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C15" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F15" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G15">
         <v>354</v>
@@ -8513,10 +8507,10 @@
         <v>0.018</v>
       </c>
       <c r="J15">
-        <v>0.752</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K15">
-        <v>0.453</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8524,19 +8518,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G16">
         <v>354</v>
@@ -8548,10 +8542,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.622</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="K16">
-        <v>0.534</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8559,19 +8553,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G17">
         <v>354</v>
@@ -8583,10 +8577,10 @@
         <v>0.036</v>
       </c>
       <c r="J17">
-        <v>1.393</v>
+        <v>1.503</v>
       </c>
       <c r="K17">
-        <v>0.165</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8594,19 +8588,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C18" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F18" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G18">
         <v>354</v>
@@ -8618,10 +8612,10 @@
         <v>0.023</v>
       </c>
       <c r="J18">
-        <v>0.885</v>
+        <v>0.915</v>
       </c>
       <c r="K18">
-        <v>0.377</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8629,19 +8623,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G19">
         <v>354</v>
@@ -8653,10 +8647,10 @@
         <v>0.028</v>
       </c>
       <c r="J19">
-        <v>1.015</v>
+        <v>1.278</v>
       </c>
       <c r="K19">
-        <v>0.311</v>
+        <v>0.201</v>
       </c>
     </row>
   </sheetData>
@@ -8725,19 +8719,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G2">
         <v>354</v>
@@ -8749,10 +8743,10 @@
         <v>6.059</v>
       </c>
       <c r="J2">
-        <v>1.507</v>
+        <v>1.451</v>
       </c>
       <c r="K2">
-        <v>0.133</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8760,19 +8754,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G3">
         <v>354</v>
@@ -8784,10 +8778,10 @@
         <v>0.178</v>
       </c>
       <c r="J3">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="K3">
-        <v>0.963</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8795,19 +8789,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G4">
         <v>354</v>
@@ -8819,10 +8813,10 @@
         <v>1.713</v>
       </c>
       <c r="J4">
-        <v>0.37</v>
+        <v>0.519</v>
       </c>
       <c r="K4">
-        <v>0.712</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8830,19 +8824,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G5">
         <v>354</v>
@@ -8854,10 +8848,10 @@
         <v>-3.587</v>
       </c>
       <c r="J5">
-        <v>-0.738</v>
+        <v>-0.829</v>
       </c>
       <c r="K5">
-        <v>0.461</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8865,19 +8859,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G6">
         <v>354</v>
@@ -8889,10 +8883,10 @@
         <v>-7.203</v>
       </c>
       <c r="J6">
-        <v>-1.43</v>
+        <v>-1.588</v>
       </c>
       <c r="K6">
-        <v>0.154</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8900,19 +8894,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G7">
         <v>354</v>
@@ -8924,10 +8918,10 @@
         <v>2.554</v>
       </c>
       <c r="J7">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="K7">
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8935,19 +8929,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F8" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G8">
         <v>354</v>
@@ -8956,13 +8950,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>-1.074</v>
+        <v>-1.02</v>
       </c>
       <c r="J8">
-        <v>-0.723</v>
+        <v>-0.637</v>
       </c>
       <c r="K8">
-        <v>0.471</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8970,19 +8964,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G9">
         <v>354</v>
@@ -8994,10 +8988,10 @@
         <v>-0.5590000000000001</v>
       </c>
       <c r="J9">
-        <v>-0.408</v>
+        <v>-0.486</v>
       </c>
       <c r="K9">
-        <v>0.6840000000000001</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9005,19 +8999,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D10" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E10" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F10" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G10">
         <v>354</v>
@@ -9029,10 +9023,10 @@
         <v>-1.022</v>
       </c>
       <c r="J10">
-        <v>-0.619</v>
+        <v>-0.785</v>
       </c>
       <c r="K10">
-        <v>0.536</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9040,19 +9034,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G11">
         <v>354</v>
@@ -9064,10 +9058,10 @@
         <v>0.334</v>
       </c>
       <c r="J11">
-        <v>0.196</v>
+        <v>0.222</v>
       </c>
       <c r="K11">
-        <v>0.845</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9075,19 +9069,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G12">
         <v>354</v>
@@ -9099,10 +9093,10 @@
         <v>2.048</v>
       </c>
       <c r="J12">
-        <v>1.136</v>
+        <v>1.214</v>
       </c>
       <c r="K12">
-        <v>0.257</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9110,19 +9104,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C13" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D13" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E13" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F13" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G13">
         <v>354</v>
@@ -9134,10 +9128,10 @@
         <v>-0.767</v>
       </c>
       <c r="J13">
-        <v>-0.424</v>
+        <v>-0.484</v>
       </c>
       <c r="K13">
-        <v>0.672</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9145,19 +9139,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G14">
         <v>354</v>
@@ -9172,7 +9166,7 @@
         <v>-0.016</v>
       </c>
       <c r="K14">
-        <v>0.988</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9180,19 +9174,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C15" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D15" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G15">
         <v>354</v>
@@ -9204,10 +9198,10 @@
         <v>0.008</v>
       </c>
       <c r="J15">
-        <v>0.273</v>
+        <v>0.299</v>
       </c>
       <c r="K15">
-        <v>0.785</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9215,19 +9209,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E16" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F16" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G16">
         <v>354</v>
@@ -9239,10 +9233,10 @@
         <v>-0.007</v>
       </c>
       <c r="J16">
-        <v>-0.23</v>
+        <v>-0.202</v>
       </c>
       <c r="K16">
-        <v>0.819</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9250,19 +9244,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C17" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D17" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E17" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G17">
         <v>354</v>
@@ -9274,10 +9268,10 @@
         <v>0.024</v>
       </c>
       <c r="J17">
-        <v>0.781</v>
+        <v>0.857</v>
       </c>
       <c r="K17">
-        <v>0.436</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9285,19 +9279,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C18" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D18" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G18">
         <v>354</v>
@@ -9309,10 +9303,10 @@
         <v>0.015</v>
       </c>
       <c r="J18">
-        <v>0.508</v>
+        <v>0.54</v>
       </c>
       <c r="K18">
-        <v>0.612</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9320,19 +9314,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C19" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E19" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F19" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G19">
         <v>354</v>
@@ -9344,10 +9338,10 @@
         <v>0.022</v>
       </c>
       <c r="J19">
-        <v>0.696</v>
+        <v>0.856</v>
       </c>
       <c r="K19">
-        <v>0.487</v>
+        <v>0.392</v>
       </c>
     </row>
   </sheetData>
@@ -9433,10 +9427,10 @@
         <v>4.814</v>
       </c>
       <c r="I2">
-        <v>1.38</v>
+        <v>1.127</v>
       </c>
       <c r="J2">
-        <v>0.168</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9465,10 +9459,10 @@
         <v>1.36</v>
       </c>
       <c r="I3">
-        <v>0.407</v>
+        <v>0.339</v>
       </c>
       <c r="J3">
-        <v>0.6840000000000001</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9497,10 +9491,10 @@
         <v>0.863</v>
       </c>
       <c r="I4">
-        <v>0.203</v>
+        <v>0.212</v>
       </c>
       <c r="J4">
-        <v>0.839</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9529,10 +9523,10 @@
         <v>-0.622</v>
       </c>
       <c r="I5">
-        <v>-0.138</v>
+        <v>-0.144</v>
       </c>
       <c r="J5">
-        <v>0.89</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9561,10 +9555,10 @@
         <v>-2.184</v>
       </c>
       <c r="I6">
-        <v>-0.471</v>
+        <v>-0.5679999999999999</v>
       </c>
       <c r="J6">
-        <v>0.638</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9593,10 +9587,10 @@
         <v>4.705</v>
       </c>
       <c r="I7">
-        <v>0.977</v>
+        <v>1.088</v>
       </c>
       <c r="J7">
-        <v>0.329</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9622,13 +9616,13 @@
         <v>0.026</v>
       </c>
       <c r="H8">
-        <v>-2.524</v>
+        <v>-2.51</v>
       </c>
       <c r="I8">
-        <v>-1.874</v>
+        <v>-1.843</v>
       </c>
       <c r="J8">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9657,10 +9651,10 @@
         <v>0.412</v>
       </c>
       <c r="I9">
-        <v>0.311</v>
+        <v>0.306</v>
       </c>
       <c r="J9">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9689,10 +9683,10 @@
         <v>-0.617</v>
       </c>
       <c r="I10">
-        <v>-0.402</v>
+        <v>-0.43</v>
       </c>
       <c r="J10">
-        <v>0.6879999999999999</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9721,10 +9715,10 @@
         <v>-0.635</v>
       </c>
       <c r="I11">
-        <v>-0.397</v>
+        <v>-0.353</v>
       </c>
       <c r="J11">
-        <v>0.6909999999999999</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9753,10 +9747,10 @@
         <v>0.583</v>
       </c>
       <c r="I12">
-        <v>0.352</v>
+        <v>0.434</v>
       </c>
       <c r="J12">
-        <v>0.725</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9785,10 +9779,10 @@
         <v>-2.131</v>
       </c>
       <c r="I13">
-        <v>-1.258</v>
+        <v>-1.48</v>
       </c>
       <c r="J13">
-        <v>0.209</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9817,10 +9811,10 @@
         <v>0.023</v>
       </c>
       <c r="I14">
-        <v>0.9379999999999999</v>
+        <v>0.778</v>
       </c>
       <c r="J14">
-        <v>0.349</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9849,10 +9843,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>0.359</v>
+        <v>0.334</v>
       </c>
       <c r="J15">
-        <v>0.72</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9881,10 +9875,10 @@
         <v>-0.003</v>
       </c>
       <c r="I16">
-        <v>-0.101</v>
+        <v>-0.103</v>
       </c>
       <c r="J16">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9913,10 +9907,10 @@
         <v>0.048</v>
       </c>
       <c r="I17">
-        <v>1.739</v>
+        <v>2.253</v>
       </c>
       <c r="J17">
-        <v>0.083</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9945,10 +9939,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0.697</v>
+        <v>0.645</v>
       </c>
       <c r="J18">
-        <v>0.486</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9977,10 +9971,10 @@
         <v>0.032</v>
       </c>
       <c r="I19">
-        <v>1.128</v>
+        <v>1.106</v>
       </c>
       <c r="J19">
-        <v>0.26</v>
+        <v>0.269</v>
       </c>
     </row>
   </sheetData>
@@ -10066,10 +10060,10 @@
         <v>8.489000000000001</v>
       </c>
       <c r="I2">
-        <v>2.156</v>
+        <v>1.593</v>
       </c>
       <c r="J2">
-        <v>0.032</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10098,10 +10092,10 @@
         <v>3.541</v>
       </c>
       <c r="I3">
-        <v>0.9360000000000001</v>
+        <v>0.718</v>
       </c>
       <c r="J3">
-        <v>0.35</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10130,10 +10124,10 @@
         <v>3.283</v>
       </c>
       <c r="I4">
-        <v>0.6830000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="J4">
-        <v>0.495</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10162,10 +10156,10 @@
         <v>0.85</v>
       </c>
       <c r="I5">
-        <v>0.167</v>
+        <v>0.175</v>
       </c>
       <c r="J5">
-        <v>0.868</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10194,10 +10188,10 @@
         <v>-1.86</v>
       </c>
       <c r="I6">
-        <v>-0.354</v>
+        <v>-0.393</v>
       </c>
       <c r="J6">
-        <v>0.724</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10226,10 +10220,10 @@
         <v>4.887</v>
       </c>
       <c r="I7">
-        <v>0.896</v>
+        <v>0.795</v>
       </c>
       <c r="J7">
-        <v>0.371</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10255,13 +10249,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-3.338</v>
+        <v>-3.316</v>
       </c>
       <c r="I8">
-        <v>-2.191</v>
+        <v>-1.891</v>
       </c>
       <c r="J8">
-        <v>0.029</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10290,10 +10284,10 @@
         <v>-0.721</v>
       </c>
       <c r="I9">
-        <v>-0.479</v>
+        <v>-0.397</v>
       </c>
       <c r="J9">
-        <v>0.632</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10322,10 +10316,10 @@
         <v>-1.681</v>
       </c>
       <c r="I10">
-        <v>-0.967</v>
+        <v>-1.074</v>
       </c>
       <c r="J10">
-        <v>0.334</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10354,10 +10348,10 @@
         <v>-0.878</v>
       </c>
       <c r="I11">
-        <v>-0.485</v>
+        <v>-0.478</v>
       </c>
       <c r="J11">
-        <v>0.628</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10386,10 +10380,10 @@
         <v>-0.108</v>
       </c>
       <c r="I12">
-        <v>-0.058</v>
+        <v>-0.065</v>
       </c>
       <c r="J12">
-        <v>0.954</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10418,10 +10412,10 @@
         <v>-2.208</v>
       </c>
       <c r="I13">
-        <v>-1.15</v>
+        <v>-1.042</v>
       </c>
       <c r="J13">
-        <v>0.251</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10450,10 +10444,10 @@
         <v>0.042</v>
       </c>
       <c r="I14">
-        <v>1.492</v>
+        <v>1.55</v>
       </c>
       <c r="J14">
-        <v>0.137</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10482,10 +10476,10 @@
         <v>0.026</v>
       </c>
       <c r="I15">
-        <v>0.912</v>
+        <v>1.052</v>
       </c>
       <c r="J15">
-        <v>0.363</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10514,10 +10508,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.169</v>
+        <v>0.192</v>
       </c>
       <c r="J16">
-        <v>0.866</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10546,10 +10540,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>1.982</v>
+        <v>1.947</v>
       </c>
       <c r="J17">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10578,10 +10572,10 @@
         <v>0.011</v>
       </c>
       <c r="I18">
-        <v>0.344</v>
+        <v>0.327</v>
       </c>
       <c r="J18">
-        <v>0.731</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10610,10 +10604,10 @@
         <v>0.047</v>
       </c>
       <c r="I19">
-        <v>1.436</v>
+        <v>1.419</v>
       </c>
       <c r="J19">
-        <v>0.152</v>
+        <v>0.156</v>
       </c>
     </row>
   </sheetData>
@@ -10699,10 +10693,10 @@
         <v>7.668</v>
       </c>
       <c r="I2">
-        <v>1.675</v>
+        <v>1.449</v>
       </c>
       <c r="J2">
-        <v>0.095</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10731,10 +10725,10 @@
         <v>3.536</v>
       </c>
       <c r="I3">
-        <v>0.805</v>
+        <v>0.616</v>
       </c>
       <c r="J3">
-        <v>0.421</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10763,10 +10757,10 @@
         <v>6.247</v>
       </c>
       <c r="I4">
-        <v>1.123</v>
+        <v>1.074</v>
       </c>
       <c r="J4">
-        <v>0.262</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10795,10 +10789,10 @@
         <v>-0.391</v>
       </c>
       <c r="I5">
-        <v>-0.066</v>
+        <v>-0.062</v>
       </c>
       <c r="J5">
-        <v>0.947</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10827,7 +10821,7 @@
         <v>-1.771</v>
       </c>
       <c r="I6">
-        <v>-0.291</v>
+        <v>-0.292</v>
       </c>
       <c r="J6">
         <v>0.771</v>
@@ -10859,10 +10853,10 @@
         <v>8.507</v>
       </c>
       <c r="I7">
-        <v>1.347</v>
+        <v>1.167</v>
       </c>
       <c r="J7">
-        <v>0.179</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10888,13 +10882,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-3.329</v>
+        <v>-3.263</v>
       </c>
       <c r="I8">
-        <v>-1.881</v>
+        <v>-2</v>
       </c>
       <c r="J8">
-        <v>0.061</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10923,10 +10917,10 @@
         <v>-1.195</v>
       </c>
       <c r="I9">
-        <v>-0.6860000000000001</v>
+        <v>-0.553</v>
       </c>
       <c r="J9">
-        <v>0.493</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10955,10 +10949,10 @@
         <v>-3.171</v>
       </c>
       <c r="I10">
-        <v>-1.577</v>
+        <v>-1.539</v>
       </c>
       <c r="J10">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10987,10 +10981,10 @@
         <v>-0.138</v>
       </c>
       <c r="I11">
-        <v>-0.066</v>
+        <v>-0.058</v>
       </c>
       <c r="J11">
-        <v>0.947</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11019,10 +11013,10 @@
         <v>-0.39</v>
       </c>
       <c r="I12">
-        <v>-0.179</v>
+        <v>-0.2</v>
       </c>
       <c r="J12">
-        <v>0.858</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11051,10 +11045,10 @@
         <v>-3.525</v>
       </c>
       <c r="I13">
-        <v>-1.586</v>
+        <v>-1.376</v>
       </c>
       <c r="J13">
-        <v>0.114</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11083,10 +11077,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I14">
-        <v>0.285</v>
+        <v>0.292</v>
       </c>
       <c r="J14">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11115,10 +11109,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.22</v>
+        <v>0.267</v>
       </c>
       <c r="J15">
-        <v>0.826</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11147,10 +11141,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.156</v>
+        <v>0.178</v>
       </c>
       <c r="J16">
-        <v>0.876</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11179,10 +11173,10 @@
         <v>0.059</v>
       </c>
       <c r="I17">
-        <v>1.636</v>
+        <v>1.704</v>
       </c>
       <c r="J17">
-        <v>0.103</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11211,10 +11205,10 @@
         <v>0.014</v>
       </c>
       <c r="I18">
-        <v>0.386</v>
+        <v>0.419</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11243,10 +11237,10 @@
         <v>0.03</v>
       </c>
       <c r="I19">
-        <v>0.796</v>
+        <v>0.867</v>
       </c>
       <c r="J19">
-        <v>0.427</v>
+        <v>0.386</v>
       </c>
     </row>
   </sheetData>
@@ -11332,10 +11326,10 @@
         <v>0.58</v>
       </c>
       <c r="I2">
-        <v>0.212</v>
+        <v>0.208</v>
       </c>
       <c r="J2">
-        <v>0.832</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11364,10 +11358,10 @@
         <v>1.365</v>
       </c>
       <c r="I3">
-        <v>0.528</v>
+        <v>0.596</v>
       </c>
       <c r="J3">
-        <v>0.598</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11396,10 +11390,10 @@
         <v>1.074</v>
       </c>
       <c r="I4">
-        <v>0.332</v>
+        <v>0.344</v>
       </c>
       <c r="J4">
-        <v>0.74</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11428,10 +11422,10 @@
         <v>-0.113</v>
       </c>
       <c r="I5">
-        <v>-0.032</v>
+        <v>-0.039</v>
       </c>
       <c r="J5">
-        <v>0.974</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11460,10 +11454,10 @@
         <v>-5.163</v>
       </c>
       <c r="I6">
-        <v>-1.425</v>
+        <v>-1.638</v>
       </c>
       <c r="J6">
-        <v>0.155</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11492,10 +11486,10 @@
         <v>1.501</v>
       </c>
       <c r="I7">
-        <v>0.401</v>
+        <v>0.432</v>
       </c>
       <c r="J7">
-        <v>0.6879999999999999</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11521,13 +11515,13 @@
         <v>0.046</v>
       </c>
       <c r="H8">
-        <v>-0.374</v>
+        <v>-0.351</v>
       </c>
       <c r="I8">
-        <v>-0.357</v>
+        <v>-0.384</v>
       </c>
       <c r="J8">
-        <v>0.722</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11556,10 +11550,10 @@
         <v>-0.72</v>
       </c>
       <c r="I9">
-        <v>-0.722</v>
+        <v>-0.868</v>
       </c>
       <c r="J9">
-        <v>0.471</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11588,10 +11582,10 @@
         <v>-1.391</v>
       </c>
       <c r="I10">
-        <v>-1.187</v>
+        <v>-1.193</v>
       </c>
       <c r="J10">
-        <v>0.236</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11620,10 +11614,10 @@
         <v>-0.888</v>
       </c>
       <c r="I11">
-        <v>-0.721</v>
+        <v>-0.879</v>
       </c>
       <c r="J11">
-        <v>0.471</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11652,10 +11646,10 @@
         <v>1.982</v>
       </c>
       <c r="I12">
-        <v>1.53</v>
+        <v>1.684</v>
       </c>
       <c r="J12">
-        <v>0.127</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11684,10 +11678,10 @@
         <v>-0.788</v>
       </c>
       <c r="I13">
-        <v>-0.599</v>
+        <v>-0.648</v>
       </c>
       <c r="J13">
-        <v>0.55</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11748,10 +11742,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.519</v>
+        <v>0.495</v>
       </c>
       <c r="J15">
-        <v>0.604</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11780,10 +11774,10 @@
         <v>0.015</v>
       </c>
       <c r="I16">
-        <v>0.6870000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="J16">
-        <v>0.493</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11812,10 +11806,10 @@
         <v>0.034</v>
       </c>
       <c r="I17">
-        <v>1.58</v>
+        <v>2.513</v>
       </c>
       <c r="J17">
-        <v>0.115</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11844,10 +11838,10 @@
         <v>0.004</v>
       </c>
       <c r="I18">
-        <v>0.166</v>
+        <v>0.193</v>
       </c>
       <c r="J18">
-        <v>0.868</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11876,10 +11870,10 @@
         <v>0.017</v>
       </c>
       <c r="I19">
-        <v>0.786</v>
+        <v>1.038</v>
       </c>
       <c r="J19">
-        <v>0.433</v>
+        <v>0.299</v>
       </c>
     </row>
   </sheetData>
@@ -11947,13 +11941,13 @@
         <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2">
         <v>404</v>
@@ -11965,10 +11959,10 @@
         <v>3.311</v>
       </c>
       <c r="I2">
-        <v>0.988</v>
+        <v>0.93</v>
       </c>
       <c r="J2">
-        <v>0.324</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11979,13 +11973,13 @@
         <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3">
         <v>404</v>
@@ -11997,10 +11991,10 @@
         <v>1.805</v>
       </c>
       <c r="I3">
-        <v>0.5669999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="J3">
-        <v>0.571</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12011,13 +12005,13 @@
         <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F4">
         <v>404</v>
@@ -12029,10 +12023,10 @@
         <v>1.192</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.389</v>
       </c>
       <c r="J4">
-        <v>0.764</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12043,13 +12037,13 @@
         <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F5">
         <v>404</v>
@@ -12061,10 +12055,10 @@
         <v>-2.47</v>
       </c>
       <c r="I5">
-        <v>-0.579</v>
+        <v>-0.611</v>
       </c>
       <c r="J5">
-        <v>0.5629999999999999</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12075,13 +12069,13 @@
         <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -12093,10 +12087,10 @@
         <v>-8.460000000000001</v>
       </c>
       <c r="I6">
-        <v>-1.904</v>
+        <v>-2.257</v>
       </c>
       <c r="J6">
-        <v>0.058</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12107,13 +12101,13 @@
         <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7">
         <v>404</v>
@@ -12125,10 +12119,10 @@
         <v>0.504</v>
       </c>
       <c r="I7">
-        <v>0.11</v>
+        <v>0.129</v>
       </c>
       <c r="J7">
-        <v>0.913</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12139,13 +12133,13 @@
         <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8">
         <v>404</v>
@@ -12154,13 +12148,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>-1.823</v>
+        <v>-1.804</v>
       </c>
       <c r="I8">
-        <v>-1.416</v>
+        <v>-1.741</v>
       </c>
       <c r="J8">
-        <v>0.158</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12171,13 +12165,13 @@
         <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F9">
         <v>404</v>
@@ -12189,10 +12183,10 @@
         <v>-0.551</v>
       </c>
       <c r="I9">
-        <v>-0.449</v>
+        <v>-0.589</v>
       </c>
       <c r="J9">
-        <v>0.653</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12200,16 +12194,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F10">
         <v>404</v>
@@ -12221,10 +12215,10 @@
         <v>-1.234</v>
       </c>
       <c r="I10">
-        <v>-0.856</v>
+        <v>-1.066</v>
       </c>
       <c r="J10">
-        <v>0.393</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12232,16 +12226,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F11">
         <v>404</v>
@@ -12264,16 +12258,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F12">
         <v>404</v>
@@ -12285,10 +12279,10 @@
         <v>2.569</v>
       </c>
       <c r="I12">
-        <v>1.613</v>
+        <v>2.033</v>
       </c>
       <c r="J12">
-        <v>0.108</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12296,16 +12290,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F13">
         <v>404</v>
@@ -12317,10 +12311,10 @@
         <v>-0.741</v>
       </c>
       <c r="I13">
-        <v>-0.458</v>
+        <v>-0.579</v>
       </c>
       <c r="J13">
-        <v>0.647</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12328,16 +12322,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F14">
         <v>404</v>
@@ -12349,10 +12343,10 @@
         <v>0.002</v>
       </c>
       <c r="I14">
-        <v>0.098</v>
+        <v>0.092</v>
       </c>
       <c r="J14">
-        <v>0.922</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12360,16 +12354,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F15">
         <v>404</v>
@@ -12381,10 +12375,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="J15">
-        <v>0.849</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12392,16 +12386,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F16">
         <v>404</v>
@@ -12413,10 +12407,10 @@
         <v>0.001</v>
       </c>
       <c r="I16">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="J16">
-        <v>0.954</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12424,16 +12418,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F17">
         <v>404</v>
@@ -12445,10 +12439,10 @@
         <v>0.059</v>
       </c>
       <c r="I17">
-        <v>2.266</v>
+        <v>2.924</v>
       </c>
       <c r="J17">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12456,16 +12450,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F18">
         <v>404</v>
@@ -12477,10 +12471,10 @@
         <v>0.022</v>
       </c>
       <c r="I18">
-        <v>0.8169999999999999</v>
+        <v>0.948</v>
       </c>
       <c r="J18">
-        <v>0.415</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12488,16 +12482,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F19">
         <v>404</v>
@@ -12509,10 +12503,10 @@
         <v>0.033</v>
       </c>
       <c r="I19">
-        <v>1.229</v>
+        <v>1.68</v>
       </c>
       <c r="J19">
-        <v>0.22</v>
+        <v>0.093</v>
       </c>
     </row>
   </sheetData>
@@ -12577,16 +12571,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <v>404</v>
@@ -12598,10 +12592,10 @@
         <v>6.668</v>
       </c>
       <c r="I2">
-        <v>1.75</v>
+        <v>1.445</v>
       </c>
       <c r="J2">
-        <v>0.081</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12609,16 +12603,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F3">
         <v>404</v>
@@ -12630,10 +12624,10 @@
         <v>3.744</v>
       </c>
       <c r="I3">
-        <v>1.034</v>
+        <v>1.016</v>
       </c>
       <c r="J3">
-        <v>0.302</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12641,16 +12635,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F4">
         <v>404</v>
@@ -12662,10 +12656,10 @@
         <v>3.062</v>
       </c>
       <c r="I4">
-        <v>0.676</v>
+        <v>0.703</v>
       </c>
       <c r="J4">
-        <v>0.499</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12673,16 +12667,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F5">
         <v>404</v>
@@ -12694,10 +12688,10 @@
         <v>-1.974</v>
       </c>
       <c r="I5">
-        <v>-0.406</v>
+        <v>-0.497</v>
       </c>
       <c r="J5">
-        <v>0.6850000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12705,16 +12699,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -12726,10 +12720,10 @@
         <v>-7.807</v>
       </c>
       <c r="I6">
-        <v>-1.539</v>
+        <v>-1.892</v>
       </c>
       <c r="J6">
-        <v>0.125</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12737,16 +12731,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F7">
         <v>404</v>
@@ -12758,10 +12752,10 @@
         <v>0.707</v>
       </c>
       <c r="I7">
-        <v>0.135</v>
+        <v>0.144</v>
       </c>
       <c r="J7">
-        <v>0.893</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12769,16 +12763,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F8">
         <v>404</v>
@@ -12787,13 +12781,13 @@
         <v>0.022</v>
       </c>
       <c r="H8">
-        <v>-2.335</v>
+        <v>-2.319</v>
       </c>
       <c r="I8">
-        <v>-1.593</v>
+        <v>-1.576</v>
       </c>
       <c r="J8">
-        <v>0.112</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12801,16 +12795,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F9">
         <v>404</v>
@@ -12822,10 +12816,10 @@
         <v>-1.232</v>
       </c>
       <c r="I9">
-        <v>-0.882</v>
+        <v>-0.944</v>
       </c>
       <c r="J9">
-        <v>0.378</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12833,16 +12827,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F10">
         <v>404</v>
@@ -12854,10 +12848,10 @@
         <v>-2.289</v>
       </c>
       <c r="I10">
-        <v>-1.395</v>
+        <v>-1.466</v>
       </c>
       <c r="J10">
-        <v>0.164</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12865,16 +12859,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F11">
         <v>404</v>
@@ -12886,10 +12880,10 @@
         <v>-0.095</v>
       </c>
       <c r="I11">
-        <v>-0.055</v>
+        <v>-0.073</v>
       </c>
       <c r="J11">
-        <v>0.956</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12897,16 +12891,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F12">
         <v>404</v>
@@ -12918,10 +12912,10 @@
         <v>1.845</v>
       </c>
       <c r="I12">
-        <v>1.014</v>
+        <v>1.087</v>
       </c>
       <c r="J12">
-        <v>0.311</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12929,16 +12923,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F13">
         <v>404</v>
@@ -12950,10 +12944,10 @@
         <v>-0.491</v>
       </c>
       <c r="I13">
-        <v>-0.266</v>
+        <v>-0.293</v>
       </c>
       <c r="J13">
-        <v>0.79</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12961,16 +12955,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F14">
         <v>404</v>
@@ -12982,10 +12976,10 @@
         <v>0.015</v>
       </c>
       <c r="I14">
-        <v>0.537</v>
+        <v>0.541</v>
       </c>
       <c r="J14">
-        <v>0.591</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12993,16 +12987,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F15">
         <v>404</v>
@@ -13014,10 +13008,10 @@
         <v>0.013</v>
       </c>
       <c r="I15">
-        <v>0.458</v>
+        <v>0.521</v>
       </c>
       <c r="J15">
-        <v>0.647</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13025,16 +13019,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F16">
         <v>404</v>
@@ -13046,10 +13040,10 @@
         <v>-0.001</v>
       </c>
       <c r="I16">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="J16">
-        <v>0.987</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13057,16 +13051,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F17">
         <v>404</v>
@@ -13078,10 +13072,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>2.07</v>
+        <v>2.199</v>
       </c>
       <c r="J17">
-        <v>0.039</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13089,16 +13083,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18">
         <v>404</v>
@@ -13110,10 +13104,10 @@
         <v>0.027</v>
       </c>
       <c r="I18">
-        <v>0.886</v>
+        <v>0.844</v>
       </c>
       <c r="J18">
-        <v>0.376</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13121,16 +13115,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F19">
         <v>404</v>
@@ -13142,10 +13136,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>1.103</v>
+        <v>1.569</v>
       </c>
       <c r="J19">
-        <v>0.271</v>
+        <v>0.117</v>
       </c>
     </row>
   </sheetData>
@@ -13210,16 +13204,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2">
         <v>404</v>
@@ -13231,10 +13225,10 @@
         <v>4.453</v>
       </c>
       <c r="I2">
-        <v>0.988</v>
+        <v>0.88</v>
       </c>
       <c r="J2">
-        <v>0.324</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13242,16 +13236,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F3">
         <v>404</v>
@@ -13263,10 +13257,10 @@
         <v>4.099</v>
       </c>
       <c r="I3">
-        <v>0.959</v>
+        <v>0.954</v>
       </c>
       <c r="J3">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13274,16 +13268,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F4">
         <v>404</v>
@@ -13295,10 +13289,10 @@
         <v>8.176</v>
       </c>
       <c r="I4">
-        <v>1.535</v>
+        <v>1.588</v>
       </c>
       <c r="J4">
-        <v>0.126</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13306,16 +13300,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5">
         <v>404</v>
@@ -13327,10 +13321,10 @@
         <v>-3.107</v>
       </c>
       <c r="I5">
-        <v>-0.541</v>
+        <v>-0.595</v>
       </c>
       <c r="J5">
-        <v>0.589</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13338,16 +13332,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -13359,10 +13353,10 @@
         <v>-7.9</v>
       </c>
       <c r="I6">
-        <v>-1.318</v>
+        <v>-1.585</v>
       </c>
       <c r="J6">
-        <v>0.188</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13370,16 +13364,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F7">
         <v>404</v>
@@ -13391,10 +13385,10 @@
         <v>5.856</v>
       </c>
       <c r="I7">
-        <v>0.948</v>
+        <v>0.959</v>
       </c>
       <c r="J7">
-        <v>0.344</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13402,16 +13396,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F8">
         <v>404</v>
@@ -13420,13 +13414,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-1.134</v>
+        <v>-1.077</v>
       </c>
       <c r="I8">
-        <v>-0.653</v>
+        <v>-0.655</v>
       </c>
       <c r="J8">
-        <v>0.514</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13434,16 +13428,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F9">
         <v>404</v>
@@ -13455,10 +13449,10 @@
         <v>-1.86</v>
       </c>
       <c r="I9">
-        <v>-1.13</v>
+        <v>-1.226</v>
       </c>
       <c r="J9">
-        <v>0.259</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13466,16 +13460,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F10">
         <v>404</v>
@@ -13487,10 +13481,10 @@
         <v>-4.268</v>
       </c>
       <c r="I10">
-        <v>-2.214</v>
+        <v>-2.252</v>
       </c>
       <c r="J10">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13498,16 +13492,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F11">
         <v>404</v>
@@ -13519,10 +13513,10 @@
         <v>0.846</v>
       </c>
       <c r="I11">
-        <v>0.415</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.678</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13530,16 +13524,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F12">
         <v>404</v>
@@ -13551,10 +13545,10 @@
         <v>1.728</v>
       </c>
       <c r="I12">
-        <v>0.805</v>
+        <v>0.89</v>
       </c>
       <c r="J12">
-        <v>0.422</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13562,16 +13556,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F13">
         <v>404</v>
@@ -13583,10 +13577,10 @@
         <v>-2.572</v>
       </c>
       <c r="I13">
-        <v>-1.183</v>
+        <v>-1.337</v>
       </c>
       <c r="J13">
-        <v>0.237</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13594,16 +13588,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F14">
         <v>404</v>
@@ -13615,10 +13609,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.155</v>
+        <v>-0.148</v>
       </c>
       <c r="J14">
-        <v>0.877</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13626,16 +13620,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F15">
         <v>404</v>
@@ -13647,10 +13641,10 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
       <c r="J15">
-        <v>0.984</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13658,16 +13652,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F16">
         <v>404</v>
@@ -13679,10 +13673,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.151</v>
+        <v>0.145</v>
       </c>
       <c r="J16">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13690,16 +13684,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F17">
         <v>404</v>
@@ -13711,10 +13705,10 @@
         <v>0.053</v>
       </c>
       <c r="I17">
-        <v>1.512</v>
+        <v>1.492</v>
       </c>
       <c r="J17">
-        <v>0.131</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13722,16 +13716,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F18">
         <v>404</v>
@@ -13743,10 +13737,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>0.796</v>
+        <v>0.9</v>
       </c>
       <c r="J18">
-        <v>0.426</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13754,16 +13748,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F19">
         <v>404</v>
@@ -13775,10 +13769,10 @@
         <v>0.019</v>
       </c>
       <c r="I19">
-        <v>0.539</v>
+        <v>0.745</v>
       </c>
       <c r="J19">
-        <v>0.59</v>
+        <v>0.456</v>
       </c>
     </row>
   </sheetData>
@@ -13843,16 +13837,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F2">
         <v>379</v>
@@ -13864,10 +13858,10 @@
         <v>2.177</v>
       </c>
       <c r="I2">
-        <v>0.825</v>
+        <v>0.829</v>
       </c>
       <c r="J2">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13875,16 +13869,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F3">
         <v>379</v>
@@ -13896,10 +13890,10 @@
         <v>0.272</v>
       </c>
       <c r="I3">
-        <v>0.108</v>
+        <v>0.131</v>
       </c>
       <c r="J3">
-        <v>0.914</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13907,16 +13901,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F4">
         <v>379</v>
@@ -13928,10 +13922,10 @@
         <v>-1.615</v>
       </c>
       <c r="I4">
-        <v>-0.513</v>
+        <v>-0.556</v>
       </c>
       <c r="J4">
-        <v>0.608</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13939,16 +13933,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F5">
         <v>379</v>
@@ -13960,10 +13954,10 @@
         <v>-4.709</v>
       </c>
       <c r="I5">
-        <v>-1.414</v>
+        <v>-1.33</v>
       </c>
       <c r="J5">
-        <v>0.158</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13971,16 +13965,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F6">
         <v>379</v>
@@ -13992,10 +13986,10 @@
         <v>-4.971</v>
       </c>
       <c r="I6">
-        <v>-1.43</v>
+        <v>-1.488</v>
       </c>
       <c r="J6">
-        <v>0.154</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14003,16 +13997,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F7">
         <v>379</v>
@@ -14024,10 +14018,10 @@
         <v>2.752</v>
       </c>
       <c r="I7">
-        <v>0.763</v>
+        <v>0.604</v>
       </c>
       <c r="J7">
-        <v>0.446</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14035,16 +14029,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F8">
         <v>379</v>
@@ -14053,13 +14047,13 @@
         <v>0.053</v>
       </c>
       <c r="H8">
-        <v>-0.537</v>
+        <v>-0.519</v>
       </c>
       <c r="I8">
-        <v>-0.537</v>
+        <v>-0.527</v>
       </c>
       <c r="J8">
-        <v>0.592</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14067,13 +14061,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E9" t="s">
         <v>366</v>
@@ -14088,10 +14082,10 @@
         <v>-0.346</v>
       </c>
       <c r="I9">
-        <v>-0.364</v>
+        <v>-0.44</v>
       </c>
       <c r="J9">
-        <v>0.716</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14099,16 +14093,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F10">
         <v>379</v>
@@ -14120,10 +14114,10 @@
         <v>-0.328</v>
       </c>
       <c r="I10">
-        <v>-0.288</v>
+        <v>-0.309</v>
       </c>
       <c r="J10">
-        <v>0.773</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14131,16 +14125,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F11">
         <v>379</v>
@@ -14152,10 +14146,10 @@
         <v>0.739</v>
       </c>
       <c r="I11">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
       <c r="J11">
-        <v>0.531</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14163,16 +14157,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F12">
         <v>379</v>
@@ -14184,10 +14178,10 @@
         <v>1.916</v>
       </c>
       <c r="I12">
-        <v>1.543</v>
+        <v>1.523</v>
       </c>
       <c r="J12">
-        <v>0.124</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14195,16 +14189,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F13">
         <v>379</v>
@@ -14216,10 +14210,10 @@
         <v>-1.031</v>
       </c>
       <c r="I13">
-        <v>-0.821</v>
+        <v>-0.622</v>
       </c>
       <c r="J13">
-        <v>0.412</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14227,16 +14221,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F14">
         <v>379</v>
@@ -14248,7 +14242,7 @@
         <v>0.011</v>
       </c>
       <c r="I14">
-        <v>0.57</v>
+        <v>0.569</v>
       </c>
       <c r="J14">
         <v>0.569</v>
@@ -14259,16 +14253,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F15">
         <v>379</v>
@@ -14280,10 +14274,10 @@
         <v>0.019</v>
       </c>
       <c r="I15">
-        <v>1.003</v>
+        <v>0.973</v>
       </c>
       <c r="J15">
-        <v>0.316</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14291,16 +14285,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F16">
         <v>379</v>
@@ -14312,10 +14306,10 @@
         <v>0.02</v>
       </c>
       <c r="I16">
-        <v>0.973</v>
+        <v>1.029</v>
       </c>
       <c r="J16">
-        <v>0.331</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14323,16 +14317,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F17">
         <v>379</v>
@@ -14344,10 +14338,10 @@
         <v>0.06</v>
       </c>
       <c r="I17">
-        <v>2.966</v>
+        <v>4.185</v>
       </c>
       <c r="J17">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14355,16 +14349,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F18">
         <v>379</v>
@@ -14376,10 +14370,10 @@
         <v>0.027</v>
       </c>
       <c r="I18">
-        <v>1.285</v>
+        <v>1.483</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14387,16 +14381,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F19">
         <v>379</v>
@@ -14408,10 +14402,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>1.363</v>
+        <v>1.51</v>
       </c>
       <c r="J19">
-        <v>0.174</v>
+        <v>0.131</v>
       </c>
     </row>
   </sheetData>
